--- a/trunk/1. Project management/11. Daily report/tong hop/AS_PM_DailyMeeting21-3.xlsx
+++ b/trunk/1. Project management/11. Daily report/tong hop/AS_PM_DailyMeeting21-3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team member" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="46">
   <si>
     <t>Chau Le</t>
   </si>
@@ -152,6 +152,21 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Code change password</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>19/3/2014</t>
+  </si>
+  <si>
+    <t>Can not compare new password with confirm password</t>
+  </si>
+  <si>
+    <t>Dao Khau help to validate code</t>
   </si>
 </sst>
 </file>
@@ -1128,6 +1143,66 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1175,66 +1250,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2710,8 +2725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3359,16 +3374,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3383,10 +3398,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="104"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -3398,10 +3413,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3422,17 +3437,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -3477,10 +3492,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="106"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -3489,14 +3504,26 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="18"/>
+      <c r="B10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="71"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="18" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
@@ -3507,8 +3534,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="91"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="72"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3565,19 +3592,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="92"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -3586,21 +3613,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="95"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="97"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="85"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -3612,8 +3639,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="95"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -3625,8 +3652,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="95"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -3638,8 +3665,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="100"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -3675,44 +3702,48 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101" t="s">
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="90"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="89"/>
+      <c r="B25" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="79"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="79"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="99"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -3742,19 +3773,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="83" t="s">
+      <c r="F29" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -3763,13 +3794,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="84"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="106"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3800,41 +3831,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="73"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="93"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="96"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3885,12 +3916,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -3904,15 +3938,12 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="155" priority="22" stopIfTrue="1" operator="equal">
@@ -4677,16 +4708,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -4701,10 +4732,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="104"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -4716,10 +4747,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -4740,17 +4771,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -4795,10 +4826,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="106"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -4812,8 +4843,8 @@
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="91"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="72"/>
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -4825,8 +4856,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="91"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="72"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -4883,19 +4914,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="92"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -4904,13 +4935,13 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="95"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="97"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="85"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4930,8 +4961,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="95"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -4943,8 +4974,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="95"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -4956,8 +4987,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="100"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -4993,44 +5024,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101" t="s">
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="90"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="89"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="79"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="79"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="99"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -5060,19 +5091,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="83" t="s">
+      <c r="F29" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -5081,13 +5112,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="84"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="106"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -5118,43 +5149,43 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="73"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="93"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="96"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5205,12 +5236,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -5224,15 +5258,12 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="131" priority="22" stopIfTrue="1" operator="equal">
@@ -5354,7 +5385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -6003,16 +6034,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6027,10 +6058,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="104"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -6042,10 +6073,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -6066,17 +6097,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -6121,10 +6152,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="106"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -6148,8 +6179,8 @@
       <c r="F10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="91"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="72"/>
       <c r="I10" s="18" t="s">
         <v>2</v>
       </c>
@@ -6163,8 +6194,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="91"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="72"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6221,19 +6252,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="92"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -6242,21 +6273,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="95"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="97"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="85"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -6268,8 +6299,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="95"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -6281,8 +6312,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="95"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -6294,8 +6325,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="100"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -6331,44 +6362,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101" t="s">
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="90"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="89"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="79"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="79"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="99"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -6398,19 +6429,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="83" t="s">
+      <c r="F29" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -6419,13 +6450,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="84"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="106"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6456,41 +6487,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="73"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="93"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="96"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6541,12 +6572,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -6560,15 +6594,12 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="107" priority="22" stopIfTrue="1" operator="equal">
@@ -7333,16 +7364,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7357,10 +7388,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="104"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -7372,10 +7403,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -7396,17 +7427,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -7451,10 +7482,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="106"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -7468,8 +7499,8 @@
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="91"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="72"/>
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7481,8 +7512,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="91"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="72"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7539,19 +7570,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="92"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -7560,21 +7591,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="95"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="97"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="85"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -7586,8 +7617,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="95"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -7599,8 +7630,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="95"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -7612,8 +7643,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="100"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -7649,44 +7680,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101" t="s">
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="90"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="89"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="79"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="79"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="99"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -7716,19 +7747,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="83" t="s">
+      <c r="F29" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -7737,13 +7768,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="84"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="106"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7774,41 +7805,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="73"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="93"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="96"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7859,12 +7890,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -7878,15 +7912,12 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="83" priority="22" stopIfTrue="1" operator="equal">
@@ -8651,16 +8682,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -8675,10 +8706,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="104"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -8690,10 +8721,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -8714,17 +8745,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -8769,10 +8800,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="106"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -8781,26 +8812,26 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="95"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="91"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="72"/>
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="91"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="72"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -8857,19 +8888,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="92"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -8878,21 +8909,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="95"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="97"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="85"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="94"/>
-      <c r="C18" s="95"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="83"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -8904,8 +8935,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="95"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -8917,8 +8948,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="95"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -8930,8 +8961,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="100"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -8967,44 +8998,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101" t="s">
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="90"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="89"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="79"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="79"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="99"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -9034,19 +9065,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="83" t="s">
+      <c r="F29" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -9055,13 +9086,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="84"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="106"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -9092,41 +9123,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="73"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="93"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="96"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9177,13 +9208,17 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="32">
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
     <mergeCell ref="E24:I24"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="G11:H11"/>
@@ -9198,17 +9233,13 @@
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="59" priority="28" stopIfTrue="1" operator="equal">
@@ -9990,16 +10021,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10014,10 +10045,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="104"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -10029,10 +10060,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -10053,17 +10084,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -10108,10 +10139,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="106"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -10125,8 +10156,8 @@
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="91"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="72"/>
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10138,8 +10169,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="91"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="72"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10196,19 +10227,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="92"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -10217,21 +10248,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="95"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="97"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="85"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -10243,8 +10274,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="95"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -10256,8 +10287,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="95"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -10269,8 +10300,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="100"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -10306,44 +10337,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101" t="s">
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="90"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="89"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="79"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="79"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="99"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -10373,19 +10404,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="83" t="s">
+      <c r="F29" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -10394,13 +10425,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="84"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="106"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10431,43 +10462,43 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="73"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="93"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="96"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10518,12 +10549,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -10537,15 +10571,12 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="29" priority="28" stopIfTrue="1" operator="equal">

--- a/trunk/1. Project management/11. Daily report/tong hop/AS_PM_DailyMeeting21-3.xlsx
+++ b/trunk/1. Project management/11. Daily report/tong hop/AS_PM_DailyMeeting21-3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team member" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="51">
   <si>
     <t>Chau Le</t>
   </si>
@@ -167,6 +167,21 @@
   </si>
   <si>
     <t>Dao Khau help to validate code</t>
+  </si>
+  <si>
+    <t>Coding dictionary-recent tab</t>
+  </si>
+  <si>
+    <t>Coding dictionary-delete tab</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>21/3/2014</t>
+  </si>
+  <si>
+    <t>Research password MD5</t>
   </si>
 </sst>
 </file>
@@ -1143,66 +1158,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1250,6 +1205,66 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2725,7 +2740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E26" sqref="E26:I26"/>
     </sheetView>
   </sheetViews>
@@ -3374,16 +3389,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3398,10 +3413,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="74"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -3413,10 +3428,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="74"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3437,17 +3452,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -3492,10 +3507,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="76" t="s">
+      <c r="G9" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="76"/>
+      <c r="H9" s="106"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -3519,8 +3534,8 @@
       <c r="F10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="71"/>
-      <c r="H10" s="72"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="91"/>
       <c r="I10" s="18" t="s">
         <v>0</v>
       </c>
@@ -3534,8 +3549,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="72"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="91"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3592,19 +3607,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="80"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="81" t="s">
+      <c r="E16" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -3613,21 +3628,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="95"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="85"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="97"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -3639,8 +3654,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -3652,8 +3667,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -3665,8 +3680,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="100"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -3702,48 +3717,48 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89" t="s">
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="90"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="102"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="77" t="s">
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="79"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="89"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="99"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="79"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -3773,19 +3788,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="103" t="s">
+      <c r="F29" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -3794,13 +3809,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="104"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="106"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="86"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3831,41 +3846,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="93"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="73"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="94"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="96"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="76"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="94"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3916,15 +3931,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -3938,12 +3950,15 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="155" priority="22" stopIfTrue="1" operator="equal">
@@ -4708,16 +4723,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -4732,10 +4747,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="74"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -4747,10 +4762,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="74"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -4771,17 +4786,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -4826,10 +4841,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="76" t="s">
+      <c r="G9" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="76"/>
+      <c r="H9" s="106"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -4843,8 +4858,8 @@
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="72"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="91"/>
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -4856,8 +4871,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="72"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="91"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -4914,19 +4929,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="80"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="81" t="s">
+      <c r="E16" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -4935,13 +4950,13 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="95"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="85"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="97"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4961,8 +4976,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -4974,8 +4989,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -4987,8 +5002,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="100"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -5024,44 +5039,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89" t="s">
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="90"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="102"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="79"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="89"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="99"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="79"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -5091,19 +5106,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="103" t="s">
+      <c r="F29" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -5112,13 +5127,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="104"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="106"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="86"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -5149,43 +5164,43 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="93"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="73"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="96"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="76"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="94"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5236,15 +5251,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -5258,12 +5270,15 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="131" priority="22" stopIfTrue="1" operator="equal">
@@ -6034,16 +6049,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6058,10 +6073,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="74"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -6073,10 +6088,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="74"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -6097,17 +6112,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -6152,10 +6167,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="76" t="s">
+      <c r="G9" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="76"/>
+      <c r="H9" s="106"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -6179,8 +6194,8 @@
       <c r="F10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="71"/>
-      <c r="H10" s="72"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="91"/>
       <c r="I10" s="18" t="s">
         <v>2</v>
       </c>
@@ -6194,8 +6209,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="72"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="91"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6252,19 +6267,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="80"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="81" t="s">
+      <c r="E16" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -6273,21 +6288,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="95"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="85"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="97"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -6299,8 +6314,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -6312,8 +6327,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -6325,8 +6340,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="100"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -6362,44 +6377,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89" t="s">
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="90"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="102"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="79"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="89"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="99"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="79"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -6429,19 +6444,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="103" t="s">
+      <c r="F29" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -6450,13 +6465,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="104"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="106"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="86"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6487,41 +6502,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="93"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="73"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="94"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="96"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="76"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="94"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6572,15 +6587,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -6594,12 +6606,15 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="107" priority="22" stopIfTrue="1" operator="equal">
@@ -7364,16 +7379,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7388,10 +7403,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="74"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -7403,10 +7418,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="74"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -7427,17 +7442,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -7482,10 +7497,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="76" t="s">
+      <c r="G9" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="76"/>
+      <c r="H9" s="106"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -7499,8 +7514,8 @@
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="72"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="91"/>
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7512,8 +7527,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="72"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="91"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7570,19 +7585,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="80"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="81" t="s">
+      <c r="E16" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -7591,21 +7606,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="95"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="85"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="97"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -7617,8 +7632,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -7630,8 +7645,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -7643,8 +7658,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="100"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -7680,44 +7695,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89" t="s">
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="90"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="102"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="79"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="89"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="99"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="79"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -7747,19 +7762,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="103" t="s">
+      <c r="F29" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -7768,13 +7783,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="104"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="106"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="86"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7805,41 +7820,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="93"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="73"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="94"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="96"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="76"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="94"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7890,15 +7905,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -7912,12 +7924,15 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="83" priority="22" stopIfTrue="1" operator="equal">
@@ -8682,16 +8697,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -8706,10 +8721,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="74"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -8721,10 +8736,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="74"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -8745,17 +8760,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -8800,10 +8815,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="76" t="s">
+      <c r="G9" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="76"/>
+      <c r="H9" s="106"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -8812,26 +8827,26 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="83"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="95"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="72"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="91"/>
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="72"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="91"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -8888,19 +8903,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="80"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="81" t="s">
+      <c r="E16" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -8909,21 +8924,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="95"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="85"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="97"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="95"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -8935,8 +8950,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -8948,8 +8963,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -8961,8 +8976,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="100"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -8998,44 +9013,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89" t="s">
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="90"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="102"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="79"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="89"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="99"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="79"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -9065,19 +9080,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="103" t="s">
+      <c r="F29" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -9086,13 +9101,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="104"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="106"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="86"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -9123,41 +9138,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="93"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="73"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="94"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="96"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="76"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="94"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9208,17 +9223,13 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="32">
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E24:I24"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="G11:H11"/>
@@ -9233,13 +9244,17 @@
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="59" priority="28" stopIfTrue="1" operator="equal">
@@ -9372,8 +9387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10021,16 +10036,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10045,10 +10060,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="74"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -10060,10 +10075,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="74"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -10084,17 +10099,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -10139,10 +10154,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="76" t="s">
+      <c r="G9" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="76"/>
+      <c r="H9" s="106"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -10151,26 +10166,46 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="72"/>
+      <c r="B10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="90"/>
+      <c r="H10" s="91"/>
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="72"/>
+      <c r="B11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="90"/>
+      <c r="H11" s="91"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10227,19 +10262,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="80"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="81" t="s">
+      <c r="E16" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -10248,21 +10283,25 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="85"/>
+      <c r="B17" s="94" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="95"/>
+      <c r="D17" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="96"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="97"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -10274,8 +10313,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -10287,8 +10326,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -10300,8 +10339,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="100"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -10337,44 +10376,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89" t="s">
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="90"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="102"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="79"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="89"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="99"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="79"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -10404,19 +10443,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="103" t="s">
+      <c r="F29" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -10425,13 +10464,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="104"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="106"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="86"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10462,43 +10501,43 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="93"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="73"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="96"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="76"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="94"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10549,15 +10588,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -10571,12 +10607,15 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="29" priority="28" stopIfTrue="1" operator="equal">

--- a/trunk/1. Project management/11. Daily report/tong hop/AS_PM_DailyMeeting21-3.xlsx
+++ b/trunk/1. Project management/11. Daily report/tong hop/AS_PM_DailyMeeting21-3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team member" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="71">
   <si>
     <t>Chau Le</t>
   </si>
@@ -182,6 +182,66 @@
   </si>
   <si>
     <t>Research password MD5</t>
+  </si>
+  <si>
+    <t>Coding put Q/A into dictionary</t>
+  </si>
+  <si>
+    <t>Coding loading page</t>
+  </si>
+  <si>
+    <t>20/3/2014</t>
+  </si>
+  <si>
+    <t>Resarch pagination</t>
+  </si>
+  <si>
+    <t>On-going</t>
+  </si>
+  <si>
+    <t>22/3/2014</t>
+  </si>
+  <si>
+    <t>Excute test cases have assiged</t>
+  </si>
+  <si>
+    <t>Can't excute insert statement to dictionary list</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Update UAT</t>
+  </si>
+  <si>
+    <t>03.19.2014</t>
+  </si>
+  <si>
+    <t>03.20.20143</t>
+  </si>
+  <si>
+    <t>Update testcase on TFS</t>
+  </si>
+  <si>
+    <t>Test Send mail</t>
+  </si>
+  <si>
+    <t>Update defect report, test report</t>
+  </si>
+  <si>
+    <t>Chưa quen với quản lí công việc trên TFS</t>
+  </si>
+  <si>
+    <t>Integrate code</t>
+  </si>
+  <si>
+    <t>Check data in view layer</t>
+  </si>
+  <si>
+    <t>Pagination</t>
+  </si>
+  <si>
+    <t>Reporter: Dao Khau</t>
   </si>
 </sst>
 </file>
@@ -1158,6 +1218,78 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1205,78 +1337,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2740,7 +2800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E26" sqref="E26:I26"/>
     </sheetView>
   </sheetViews>
@@ -3389,16 +3449,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3413,10 +3473,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="104"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -3428,10 +3488,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3452,17 +3512,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -3507,10 +3567,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="106"/>
+      <c r="H9" s="80"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -3534,8 +3594,8 @@
       <c r="F10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="91"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="18" t="s">
         <v>0</v>
       </c>
@@ -3549,8 +3609,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="91"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3607,19 +3667,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="92"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -3628,21 +3688,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="95"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="97"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="89"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -3654,8 +3714,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="95"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -3667,8 +3727,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="95"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -3680,8 +3740,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="100"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="92"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -3717,48 +3777,48 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101" t="s">
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="94"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="87" t="s">
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="89"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="83"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="79"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="103"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -3788,19 +3848,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="106"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="83" t="s">
+      <c r="F29" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -3809,13 +3869,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="84"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="110"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3846,41 +3906,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="73"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="97"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="100"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3931,12 +3991,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -3950,15 +4013,12 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="155" priority="22" stopIfTrue="1" operator="equal">
@@ -4074,8 +4134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4723,16 +4783,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -4747,10 +4807,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="104"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -4762,10 +4822,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="104" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="104"/>
+      <c r="A4" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="78"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -4786,17 +4846,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -4841,10 +4901,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="106"/>
+      <c r="H9" s="80"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -4853,40 +4913,76 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="18"/>
+      <c r="B10" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="75"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="18" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="18"/>
+      <c r="B11" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="18" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>3</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="23"/>
+      <c r="B12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>55</v>
+      </c>
       <c r="G12" s="24"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="18"/>
+      <c r="I12" s="18" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="26">
@@ -4929,19 +5025,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="92"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -4950,21 +5046,25 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="97"/>
+      <c r="B17" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="72"/>
+      <c r="D17" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="88"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="89"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="107"/>
-      <c r="C18" s="108"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -4976,8 +5076,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="95"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -4989,8 +5089,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="95"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -5002,8 +5102,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="100"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="92"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -5039,44 +5139,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101" t="s">
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="94"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="89"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="83"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="79"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="103"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -5106,19 +5206,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="106"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="83" t="s">
+      <c r="F29" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -5127,13 +5227,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="84"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="110"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -5164,43 +5264,43 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="73"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="97"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="100"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5250,26 +5350,7 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="28">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
+  <mergeCells count="25">
     <mergeCell ref="B33:I33"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="B35:H35"/>
@@ -5279,6 +5360,22 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="131" priority="22" stopIfTrue="1" operator="equal">
@@ -6049,16 +6146,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6073,10 +6170,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="104"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -6088,10 +6185,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -6112,17 +6209,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -6167,10 +6264,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="106"/>
+      <c r="H9" s="80"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -6194,8 +6291,8 @@
       <c r="F10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="91"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="18" t="s">
         <v>2</v>
       </c>
@@ -6209,8 +6306,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="91"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6267,19 +6364,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="92"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -6288,21 +6385,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="95"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="97"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="89"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -6314,8 +6411,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="95"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -6327,8 +6424,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="95"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -6340,8 +6437,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="100"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="92"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -6377,44 +6474,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101" t="s">
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="94"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="89"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="83"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="79"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="103"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -6444,19 +6541,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="106"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="83" t="s">
+      <c r="F29" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -6465,13 +6562,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="84"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="110"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6502,41 +6599,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="73"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="97"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="100"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6587,12 +6684,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -6606,15 +6706,12 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="107" priority="22" stopIfTrue="1" operator="equal">
@@ -6731,7 +6828,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7379,16 +7476,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7403,10 +7500,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="104"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -7418,10 +7515,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -7442,17 +7539,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -7497,10 +7594,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="106"/>
+      <c r="H9" s="80"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -7509,53 +7606,99 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="18"/>
+      <c r="B10" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="75"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="18" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="18"/>
+      <c r="B11" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="18" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>3</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
+      <c r="B12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>55</v>
+      </c>
       <c r="G12" s="24"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="18"/>
+      <c r="I12" s="18" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="26">
         <v>4</v>
       </c>
-      <c r="B13" s="27"/>
+      <c r="B13" s="27" t="s">
+        <v>64</v>
+      </c>
       <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
+      <c r="D13" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>40</v>
+      </c>
       <c r="G13" s="32"/>
       <c r="H13" s="33"/>
-      <c r="I13" s="18"/>
+      <c r="I13" s="18" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
@@ -7585,19 +7728,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="92"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -7606,22 +7749,30 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="97"/>
+      <c r="B17" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="87"/>
+      <c r="D17" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="88"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="89"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="21"/>
+      <c r="B18" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="90"/>
+      <c r="D18" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
@@ -7632,8 +7783,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="95"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -7645,8 +7796,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="95"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -7658,8 +7809,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="100"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="92"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -7695,44 +7846,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101" t="s">
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="94"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="89"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="83"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="79"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="103"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -7762,19 +7913,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="106"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="83" t="s">
+      <c r="F29" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -7783,13 +7934,15 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="84"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
+      <c r="B30" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="109"/>
+      <c r="D30" s="110"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7820,41 +7973,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="73"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="97"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="100"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7905,12 +8058,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -7924,15 +8080,12 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="83" priority="22" stopIfTrue="1" operator="equal">
@@ -8049,7 +8202,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8697,16 +8850,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -8721,10 +8874,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="104"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -8736,10 +8889,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -8760,17 +8913,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
+      <c r="A6" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -8815,10 +8968,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="106"/>
+      <c r="H9" s="80"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -8827,40 +8980,72 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="18"/>
+      <c r="B10" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="87"/>
+      <c r="D10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="76"/>
+      <c r="I10" s="18" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="18"/>
+      <c r="B11" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="87"/>
+      <c r="D11" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="18" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>3</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
+      <c r="B12" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="87"/>
+      <c r="D12" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="G12" s="24"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="18"/>
+      <c r="I12" s="18" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="26">
@@ -8903,19 +9088,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="92"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -8924,22 +9109,30 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="97"/>
+      <c r="B17" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="87"/>
+      <c r="D17" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="88"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="89"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="94"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="21"/>
+      <c r="B18" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="87"/>
+      <c r="D18" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
@@ -8950,8 +9143,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="95"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -8963,8 +9156,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="95"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -8976,8 +9169,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="100"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="92"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -9013,44 +9206,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101" t="s">
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="94"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="89"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="83"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="79"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="103"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -9080,19 +9273,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="106"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="83" t="s">
+      <c r="F29" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -9101,13 +9294,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="84"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="110"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -9138,41 +9331,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="73"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="97"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="100"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9223,13 +9416,17 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="32">
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
     <mergeCell ref="E24:I24"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="G11:H11"/>
@@ -9244,17 +9441,13 @@
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="59" priority="28" stopIfTrue="1" operator="equal">
@@ -9298,24 +9491,24 @@
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:I21">
+  <conditionalFormatting sqref="I20:I21">
     <cfRule type="containsText" dxfId="47" priority="13" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
-      <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="46" priority="14" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
-      <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="45" priority="15" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
-      <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="44" priority="16" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
-      <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="43" priority="17" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
-      <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="42" priority="18" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
-      <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
@@ -9338,7 +9531,7 @@
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I18">
+  <conditionalFormatting sqref="I17:I19">
     <cfRule type="containsText" dxfId="35" priority="1" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I17)))</formula>
     </cfRule>
@@ -9375,7 +9568,7 @@
           <x14:formula1>
             <xm:f>'Team member'!$B$1:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>I10:I13 I17:I18</xm:sqref>
+          <xm:sqref>I10:I13 I17:I19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9387,8 +9580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10036,16 +10229,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10060,10 +10253,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="104"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -10075,10 +10268,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -10099,17 +10292,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -10154,10 +10347,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="106"/>
+      <c r="H9" s="80"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -10181,8 +10374,8 @@
       <c r="F10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="91"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10204,8 +10397,8 @@
       <c r="F11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="91"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10262,19 +10455,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="92"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -10283,25 +10476,25 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="95"/>
+      <c r="C17" s="87"/>
       <c r="D17" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="96"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="97"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="89"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -10313,8 +10506,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="95"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -10326,8 +10519,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="95"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -10339,8 +10532,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="100"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="92"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -10376,44 +10569,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101" t="s">
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="94"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="89"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="83"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="79"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="103"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -10443,19 +10636,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="106"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="83" t="s">
+      <c r="F29" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -10464,13 +10657,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="84"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="110"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10501,43 +10694,43 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="73"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="97"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="100"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10588,12 +10781,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -10607,15 +10803,12 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="29" priority="28" stopIfTrue="1" operator="equal">

--- a/trunk/1. Project management/11. Daily report/tong hop/AS_PM_DailyMeeting21-3.xlsx
+++ b/trunk/1. Project management/11. Daily report/tong hop/AS_PM_DailyMeeting21-3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team member" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="70">
   <si>
     <t>Chau Le</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>understand how to use ckeditor</t>
   </si>
   <si>
     <t>Reporter: Huy Ngo</t>
@@ -1230,66 +1227,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1337,6 +1274,66 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2800,7 +2797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E26" sqref="E26:I26"/>
     </sheetView>
   </sheetViews>
@@ -3449,16 +3446,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3473,10 +3470,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="78"/>
+      <c r="A3" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="108"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -3488,10 +3485,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="78"/>
+      <c r="A4" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="108"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3512,17 +3509,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -3567,10 +3564,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="80"/>
+      <c r="H9" s="110"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -3580,22 +3577,22 @@
         <v>1</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="E10" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76"/>
+        <v>39</v>
+      </c>
+      <c r="G10" s="94"/>
+      <c r="H10" s="95"/>
       <c r="I10" s="18" t="s">
         <v>0</v>
       </c>
@@ -3609,8 +3606,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="95"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3667,19 +3664,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="84"/>
+      <c r="C16" s="96"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -3688,21 +3685,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="89"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -3714,8 +3711,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -3727,8 +3724,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -3740,8 +3737,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="92"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="104"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -3777,48 +3774,48 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93" t="s">
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="94"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="106"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="81" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="83"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="103"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="83"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -3848,19 +3845,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="106"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="86"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="107" t="s">
+      <c r="F29" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -3869,13 +3866,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="108"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="110"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3906,41 +3903,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="95" t="s">
+      <c r="B33" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="97"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="77"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="98"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="100"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="80"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="98"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3991,15 +3988,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -4013,12 +4007,15 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="155" priority="22" stopIfTrue="1" operator="equal">
@@ -4134,8 +4131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4783,16 +4780,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -4807,10 +4804,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="78"/>
+      <c r="A3" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="108"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -4822,10 +4819,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="78"/>
+      <c r="A4" s="108" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="108"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -4846,17 +4843,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -4901,10 +4898,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="80"/>
+      <c r="H9" s="110"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -4914,22 +4911,22 @@
         <v>1</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76"/>
+        <v>54</v>
+      </c>
+      <c r="G10" s="94"/>
+      <c r="H10" s="95"/>
       <c r="I10" s="18" t="s">
         <v>1</v>
       </c>
@@ -4939,22 +4936,22 @@
         <v>2</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="E11" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+        <v>39</v>
+      </c>
+      <c r="G11" s="94"/>
+      <c r="H11" s="95"/>
       <c r="I11" s="18" t="s">
         <v>1</v>
       </c>
@@ -4964,19 +4961,19 @@
         <v>3</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="24"/>
       <c r="H12" s="25"/>
@@ -5010,7 +5007,7 @@
     </row>
     <row r="15" spans="1:9" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -5025,19 +5022,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="84"/>
+      <c r="C16" s="96"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -5047,16 +5044,16 @@
         <v>1</v>
       </c>
       <c r="B17" s="71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="72"/>
       <c r="D17" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="88"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="89"/>
+        <v>48</v>
+      </c>
+      <c r="E17" s="100"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5089,8 +5086,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -5102,8 +5099,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="92"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="104"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -5139,44 +5136,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93" t="s">
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="94"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="106"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="83"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="103"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="83"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -5206,19 +5203,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="106"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="86"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="107" t="s">
+      <c r="F29" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -5227,13 +5224,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="108"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="110"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -5264,43 +5261,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="95" t="s">
+      <c r="B33" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="97"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="77"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="100"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="80"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="98"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5351,15 +5346,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -5370,12 +5362,15 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="131" priority="22" stopIfTrue="1" operator="equal">
@@ -5497,7 +5492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -6146,16 +6141,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6170,10 +6165,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="78"/>
+      <c r="A3" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="108"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -6185,10 +6180,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="78"/>
+      <c r="A4" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="108"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -6209,17 +6204,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -6264,10 +6259,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="80"/>
+      <c r="H9" s="110"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -6277,22 +6272,22 @@
         <v>1</v>
       </c>
       <c r="B10" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="F10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="95"/>
       <c r="I10" s="18" t="s">
         <v>2</v>
       </c>
@@ -6306,8 +6301,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="95"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6349,7 +6344,7 @@
     </row>
     <row r="15" spans="1:9" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -6364,19 +6359,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="84"/>
+      <c r="C16" s="96"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -6385,21 +6380,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="89"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -6411,8 +6406,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -6424,8 +6419,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -6437,8 +6432,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="92"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="104"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -6474,44 +6469,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93" t="s">
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="94"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="106"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="83"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="103"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="83"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -6541,19 +6536,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="106"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="86"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="107" t="s">
+      <c r="F29" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -6562,13 +6557,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="108"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="110"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6599,41 +6594,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="95" t="s">
+      <c r="B33" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="97"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="77"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="98"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="100"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="80"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="98"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6684,15 +6679,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -6706,12 +6698,15 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="107" priority="22" stopIfTrue="1" operator="equal">
@@ -6827,8 +6822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7476,16 +7471,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7500,10 +7495,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="78"/>
+      <c r="A3" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="108"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -7515,10 +7510,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="78"/>
+      <c r="A4" s="108" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="108"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -7539,17 +7534,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -7594,10 +7589,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="80"/>
+      <c r="H9" s="110"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -7607,22 +7602,22 @@
         <v>1</v>
       </c>
       <c r="B10" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="F10" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76"/>
+        <v>54</v>
+      </c>
+      <c r="G10" s="94"/>
+      <c r="H10" s="95"/>
       <c r="I10" s="18" t="s">
         <v>3</v>
       </c>
@@ -7632,22 +7627,22 @@
         <v>2</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="F11" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+        <v>54</v>
+      </c>
+      <c r="G11" s="94"/>
+      <c r="H11" s="95"/>
       <c r="I11" s="18" t="s">
         <v>3</v>
       </c>
@@ -7657,19 +7652,19 @@
         <v>3</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="F12" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="24"/>
       <c r="H12" s="25"/>
@@ -7682,17 +7677,17 @@
         <v>4</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="33"/>
@@ -7713,7 +7708,7 @@
     </row>
     <row r="15" spans="1:9" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -7728,19 +7723,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="84"/>
+      <c r="C16" s="96"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -7749,29 +7744,29 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="87"/>
+      <c r="B17" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="99"/>
       <c r="D17" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="88"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="89"/>
+        <v>61</v>
+      </c>
+      <c r="E17" s="100"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="90" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="90"/>
+      <c r="B18" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="102"/>
       <c r="D18" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -7783,8 +7778,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -7796,8 +7791,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -7809,8 +7804,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="92"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="104"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -7846,44 +7841,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93" t="s">
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="94"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="106"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="83"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="103"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="83"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -7913,19 +7908,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="106"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="86"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="107" t="s">
+      <c r="F29" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -7934,15 +7929,15 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="108" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="109"/>
-      <c r="D30" s="110"/>
+      <c r="B30" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7973,41 +7968,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="95" t="s">
+      <c r="B33" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="97"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="77"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="98"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="100"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="80"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="98"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8058,15 +8053,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -8080,12 +8072,15 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="83" priority="22" stopIfTrue="1" operator="equal">
@@ -8201,7 +8196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -8850,16 +8845,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -8874,10 +8869,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="78"/>
+      <c r="A3" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="108"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -8889,10 +8884,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="78"/>
+      <c r="A4" s="108" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="108"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -8913,17 +8908,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="A6" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -8968,10 +8963,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="80"/>
+      <c r="H9" s="110"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -8980,23 +8975,23 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="87"/>
+      <c r="B10" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="99"/>
       <c r="D10" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="76"/>
+        <v>54</v>
+      </c>
+      <c r="G10" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="95"/>
       <c r="I10" s="18" t="s">
         <v>4</v>
       </c>
@@ -9005,21 +9000,21 @@
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="99"/>
+      <c r="D11" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="16" t="s">
-        <v>53</v>
-      </c>
       <c r="E11" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+        <v>39</v>
+      </c>
+      <c r="G11" s="94"/>
+      <c r="H11" s="95"/>
       <c r="I11" s="18" t="s">
         <v>4</v>
       </c>
@@ -9028,18 +9023,18 @@
       <c r="A12" s="20">
         <v>3</v>
       </c>
-      <c r="B12" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="87"/>
+      <c r="B12" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="99"/>
       <c r="D12" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="24"/>
       <c r="H12" s="25"/>
@@ -9073,7 +9068,7 @@
     </row>
     <row r="15" spans="1:9" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -9088,19 +9083,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="84"/>
+      <c r="C16" s="96"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -9109,29 +9104,29 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="87"/>
+      <c r="B17" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="99"/>
       <c r="D17" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="88"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="89"/>
+        <v>48</v>
+      </c>
+      <c r="E17" s="100"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="87"/>
+      <c r="B18" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="99"/>
       <c r="D18" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -9143,8 +9138,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -9156,8 +9151,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -9169,8 +9164,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="92"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="104"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -9206,44 +9201,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93" t="s">
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="94"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="106"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="83"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="103"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="83"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -9273,19 +9268,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="106"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="86"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="107" t="s">
+      <c r="F29" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -9294,13 +9289,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="108"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="110"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -9331,41 +9326,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="95" t="s">
+      <c r="B33" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="97"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="77"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="98"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="100"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="80"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="98"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9416,17 +9411,13 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="32">
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E24:I24"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="G11:H11"/>
@@ -9441,13 +9432,17 @@
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="59" priority="28" stopIfTrue="1" operator="equal">
@@ -9580,8 +9575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D12"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10229,16 +10224,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10253,10 +10248,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="78"/>
+      <c r="A3" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="108"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -10268,10 +10263,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="78"/>
+      <c r="A4" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="108"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -10292,17 +10287,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -10347,10 +10342,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="80"/>
+      <c r="H9" s="110"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -10360,22 +10355,22 @@
         <v>1</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76"/>
+        <v>39</v>
+      </c>
+      <c r="G10" s="94"/>
+      <c r="H10" s="95"/>
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10383,22 +10378,22 @@
         <v>2</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>48</v>
-      </c>
       <c r="D11" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+        <v>39</v>
+      </c>
+      <c r="G11" s="94"/>
+      <c r="H11" s="95"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10455,19 +10450,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="84"/>
+      <c r="C16" s="96"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -10476,25 +10471,25 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="87"/>
+      <c r="B17" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="99"/>
       <c r="D17" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="88"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="89"/>
+        <v>48</v>
+      </c>
+      <c r="E17" s="100"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -10506,8 +10501,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -10519,8 +10514,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -10532,8 +10527,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="92"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="104"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -10569,44 +10564,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93" t="s">
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="94"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="106"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="83"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="103"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="83"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -10636,19 +10631,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="106"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="86"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="107" t="s">
+      <c r="F29" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -10657,13 +10652,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="108"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="110"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10694,43 +10689,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="95" t="s">
+      <c r="B33" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="97"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="77"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="100"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="80"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="98"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10781,15 +10774,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -10803,12 +10793,15 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="29" priority="28" stopIfTrue="1" operator="equal">
